--- a/codigos1.xlsx
+++ b/codigos1.xlsx
@@ -19,25 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ESPADOL DETTOL ALOE VERA 80 GR JAB</t>
+    <t>Ketchup Hellmanns 250 Gr</t>
+  </si>
+  <si>
+    <t>7790070431509 </t>
+  </si>
+  <si>
+    <t>Arroz Parboil Luchetti 1 Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,10 +63,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,11 +356,19 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>7798339190105</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7794000006188</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
